--- a/results/Preliminaries-Luxembourg.xlsx
+++ b/results/Preliminaries-Luxembourg.xlsx
@@ -51,25 +51,25 @@
     <t>2018</t>
   </si>
   <si>
-    <t>ADR</t>
-  </si>
-  <si>
-    <t>CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP </t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t>LSA</t>
-  </si>
-  <si>
-    <t>L -</t>
-  </si>
-  <si>
-    <t>Pir</t>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
   </si>
   <si>
     <t>Key</t>
@@ -102,376 +102,376 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>ADR+CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADR+DP </t>
-  </si>
-  <si>
-    <t>ADR+G -</t>
-  </si>
-  <si>
-    <t>ADR+LSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV+DP </t>
-  </si>
-  <si>
-    <t>CSV+G -</t>
-  </si>
-  <si>
-    <t>CSV+LSA</t>
-  </si>
-  <si>
-    <t>DP +G -</t>
-  </si>
-  <si>
-    <t>DP +LSA</t>
-  </si>
-  <si>
-    <t>G -+LSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADR+CSV+DP </t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -</t>
-  </si>
-  <si>
-    <t>ADR+CSV+LSA</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -</t>
-  </si>
-  <si>
-    <t>ADR+DP +LSA</t>
-  </si>
-  <si>
-    <t>ADR+G -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -</t>
-  </si>
-  <si>
-    <t>CSV+DP +LSA</t>
-  </si>
-  <si>
-    <t>CSV+G -+LSA</t>
-  </si>
-  <si>
-    <t>DP +G -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+L -</t>
-  </si>
-  <si>
-    <t>CSV+L -</t>
-  </si>
-  <si>
-    <t>DP +L -</t>
-  </si>
-  <si>
-    <t>G -+L -</t>
-  </si>
-  <si>
-    <t>L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+L -</t>
-  </si>
-  <si>
-    <t>ADR+DP +L -</t>
-  </si>
-  <si>
-    <t>ADR+G -+L -</t>
-  </si>
-  <si>
-    <t>ADR+L -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+DP +L -</t>
-  </si>
-  <si>
-    <t>CSV+G -+L -</t>
-  </si>
-  <si>
-    <t>CSV+L -+LSA</t>
-  </si>
-  <si>
-    <t>DP +G -+L -</t>
-  </si>
-  <si>
-    <t>DP +L -+LSA</t>
-  </si>
-  <si>
-    <t>G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +L -</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+L -</t>
-  </si>
-  <si>
-    <t>ADR+CSV+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+L -</t>
-  </si>
-  <si>
-    <t>ADR+DP +L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+L -</t>
-  </si>
-  <si>
-    <t>CSV+DP +L -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>DP +G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+L -</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+L -+LSA</t>
-  </si>
-  <si>
-    <t>ADR+Pir</t>
-  </si>
-  <si>
-    <t>CSV+Pir</t>
-  </si>
-  <si>
-    <t>DP +Pir</t>
-  </si>
-  <si>
-    <t>G -+Pir</t>
-  </si>
-  <si>
-    <t>L -+Pir</t>
-  </si>
-  <si>
-    <t>LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +Pir</t>
-  </si>
-  <si>
-    <t>ADR+G -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +Pir</t>
-  </si>
-  <si>
-    <t>CSV+G -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+L -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+LSA+Pir</t>
-  </si>
-  <si>
-    <t>DP +G -+Pir</t>
-  </si>
-  <si>
-    <t>DP +L -+Pir</t>
-  </si>
-  <si>
-    <t>DP +LSA+Pir</t>
-  </si>
-  <si>
-    <t>G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +L -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>DP +G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>DP +G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>DP +L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>DP +G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+L -+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+DP +G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>CSV+DP +G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>ADR+CSV+DP +G -+L -+LSA+Pir</t>
-  </si>
-  <si>
-    <t>('ADR+CSV', 'DP +G -+L -+LSA')</t>
-  </si>
-  <si>
-    <t>('DP +G -+L -+LSA', 'ADR+CSV')</t>
-  </si>
-  <si>
-    <t>('CSV+G -', 'ADR+DP +L -+LSA+Pir')</t>
-  </si>
-  <si>
-    <t>('ADR+DP +L -+LSA+Pir', 'CSV+G -')</t>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)</t>
+  </si>
+  <si>
+    <t>('ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)', "DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)")</t>
+  </si>
+  <si>
+    <t>("DP - Democratic Party (Demokratesch Partei, DP)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)", 'ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)')</t>
+  </si>
+  <si>
+    <t>('CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)', "ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)")</t>
+  </si>
+  <si>
+    <t>("ADR - Alternative Democratic Reform Party (Alternativ Demokratesch Reformpartei, ADR), known until 02 November 1992 as Action Committee 5/6ths Pensions for Everyone (ADR, Aktiounskomitee 5/6 Pensioun fir jiddfereen), known from 02 November 1992 until 02 April 2006 as Action Committee for Democracy and Pensions Justice (ADR, Aktiounskomitee fir Demokratie a  Rentegerechtegkeet)+DP - Democratic Party (Demokratesch Partei, DP)+L - The Left (Déi Lénk, L)+LSAP - Socialist Workers' Party (Letzebuerger Sozialistesch Arbechterparteil, LSAP)+Pirat - Prirate Party (Piratepartei Lëtzebuerg, Pirat)", 'CSV - Christian Social Party (Chrestlech-Sozial Vollekspartei, CSV)+G - The Greens (Déi Gréng, G), known until 1995 as Green List Ecological Alternative-Green Alternative Party (, Gréng Lëscht Ekologesch Initiativ-Gréng Alternativ Partei)')</t>
   </si>
 </sst>
 </file>
